--- a/其他材料/20171121差旅单.xlsx
+++ b/其他材料/20171121差旅单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulianxing/Desktop/毕设相关/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulianxing/myArea/毕设相关/其他材料/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>所属研究室</t>
-  </si>
-  <si>
-    <t>虚拟化技术研究室</t>
   </si>
   <si>
     <t>主要工作内容</t>
@@ -236,78 +233,6 @@
   </si>
   <si>
     <t>报销打款时间</t>
-  </si>
-  <si>
-    <t>闫健恩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>机票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>　威海到北京</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>　北京到威海</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>出租车费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>威海</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>机场大巴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.11.21</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点研发计划项目总启动会</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.11.22</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.11.22</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>威海</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地铁</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.11.22</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -631,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +645,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1077,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1087,229 +1015,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="49" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="40" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
-        <v>1</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="12">
-        <v>780</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
-        <v>2</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="12">
-        <v>680</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
-        <v>3</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="12">
-        <v>101</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
-        <v>4</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="12">
-        <v>20</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
-        <v>5</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="12">
-        <v>34</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
-        <v>6</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="12">
-        <v>30</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
-        <v>7</v>
-      </c>
-      <c r="B12" s="34"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="2"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -1319,14 +1177,10 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
-        <v>8</v>
-      </c>
+      <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -1334,9 +1188,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>9</v>
-      </c>
+      <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="5"/>
       <c r="D14" s="21"/>
@@ -1348,62 +1200,60 @@
     </row>
     <row r="15" spans="1:11" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
         <f>SUM(H6:H14)</f>
-        <v>1645</v>
-      </c>
-      <c r="I15" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
